--- a/data/filtered_AA2024.xlsx
+++ b/data/filtered_AA2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E612"/>
+  <dimension ref="A1:F612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Salt_Concentrat_M</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Efficiency</t>
         </is>
       </c>
@@ -476,6 +481,9 @@
         <v>0.001</v>
       </c>
       <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -495,6 +503,9 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -514,6 +525,9 @@
         <v>0.001</v>
       </c>
       <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
         <v>30</v>
       </c>
     </row>
@@ -533,6 +547,9 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
         <v>30</v>
       </c>
     </row>
@@ -552,6 +569,9 @@
         <v>0.001</v>
       </c>
       <c r="E6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="n">
         <v>30</v>
       </c>
     </row>
@@ -571,6 +591,9 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
         <v>30</v>
       </c>
     </row>
@@ -590,6 +613,9 @@
         <v>0.001</v>
       </c>
       <c r="E8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" t="n">
         <v>40</v>
       </c>
     </row>
@@ -609,6 +635,9 @@
         <v>0.001</v>
       </c>
       <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
         <v>40</v>
       </c>
     </row>
@@ -628,6 +657,9 @@
         <v>0.001</v>
       </c>
       <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
         <v>30</v>
       </c>
     </row>
@@ -647,6 +679,9 @@
         <v>0.001</v>
       </c>
       <c r="E11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" t="n">
         <v>90</v>
       </c>
     </row>
@@ -666,6 +701,9 @@
         <v>0.001</v>
       </c>
       <c r="E12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="n">
         <v>90</v>
       </c>
     </row>
@@ -685,6 +723,9 @@
         <v>0.001</v>
       </c>
       <c r="E13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" t="n">
         <v>70</v>
       </c>
     </row>
@@ -704,6 +745,9 @@
         <v>0.001</v>
       </c>
       <c r="E14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
         <v>20</v>
       </c>
     </row>
@@ -723,6 +767,9 @@
         <v>0.001</v>
       </c>
       <c r="E15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -742,6 +789,9 @@
         <v>0.001</v>
       </c>
       <c r="E16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F16" t="n">
         <v>50</v>
       </c>
     </row>
@@ -761,6 +811,9 @@
         <v>0.001</v>
       </c>
       <c r="E17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F17" t="n">
         <v>40</v>
       </c>
     </row>
@@ -780,6 +833,9 @@
         <v>0.001</v>
       </c>
       <c r="E18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -799,6 +855,9 @@
         <v>0.001</v>
       </c>
       <c r="E19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F19" t="n">
         <v>40</v>
       </c>
     </row>
@@ -818,6 +877,9 @@
         <v>0.001</v>
       </c>
       <c r="E20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -837,6 +899,9 @@
         <v>0.001</v>
       </c>
       <c r="E21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,6 +921,9 @@
         <v>0.001</v>
       </c>
       <c r="E22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -875,6 +943,9 @@
         <v>0.001</v>
       </c>
       <c r="E23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -894,6 +965,9 @@
         <v>0.001</v>
       </c>
       <c r="E24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F24" t="n">
         <v>20</v>
       </c>
     </row>
@@ -913,6 +987,9 @@
         <v>0.001</v>
       </c>
       <c r="E25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -932,6 +1009,9 @@
         <v>0.001</v>
       </c>
       <c r="E26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F26" t="n">
         <v>80</v>
       </c>
     </row>
@@ -951,6 +1031,9 @@
         <v>0.001</v>
       </c>
       <c r="E27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F27" t="n">
         <v>40</v>
       </c>
     </row>
@@ -970,6 +1053,9 @@
         <v>0.001</v>
       </c>
       <c r="E28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="n">
         <v>10</v>
       </c>
     </row>
@@ -989,6 +1075,9 @@
         <v>0.001</v>
       </c>
       <c r="E29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1008,6 +1097,9 @@
         <v>0.001</v>
       </c>
       <c r="E30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F30" t="n">
         <v>96</v>
       </c>
     </row>
@@ -1027,6 +1119,9 @@
         <v>0.001</v>
       </c>
       <c r="E31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F31" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1046,6 +1141,9 @@
         <v>0.001</v>
       </c>
       <c r="E32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F32" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1065,6 +1163,9 @@
         <v>0.001</v>
       </c>
       <c r="E33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F33" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1084,6 +1185,9 @@
         <v>0.001</v>
       </c>
       <c r="E34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F34" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1103,6 +1207,9 @@
         <v>0.001</v>
       </c>
       <c r="E35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,6 +1229,9 @@
         <v>0.001</v>
       </c>
       <c r="E36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F36" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1141,6 +1251,9 @@
         <v>0.001</v>
       </c>
       <c r="E37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F37" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1160,6 +1273,9 @@
         <v>0.001</v>
       </c>
       <c r="E38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F38" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1179,6 +1295,9 @@
         <v>0.001</v>
       </c>
       <c r="E39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F39" t="n">
         <v>95</v>
       </c>
     </row>
@@ -1198,6 +1317,9 @@
         <v>0.001</v>
       </c>
       <c r="E40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F40" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1217,6 +1339,9 @@
         <v>0.001</v>
       </c>
       <c r="E41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F41" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1236,6 +1361,9 @@
         <v>0.001</v>
       </c>
       <c r="E42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F42" t="n">
         <v>83</v>
       </c>
     </row>
@@ -1255,6 +1383,9 @@
         <v>0.001</v>
       </c>
       <c r="E43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F43" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1274,6 +1405,9 @@
         <v>0.001</v>
       </c>
       <c r="E44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F44" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1293,6 +1427,9 @@
         <v>0.001</v>
       </c>
       <c r="E45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F45" t="n">
         <v>89</v>
       </c>
     </row>
@@ -1312,6 +1449,9 @@
         <v>0.001</v>
       </c>
       <c r="E46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F46" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1331,6 +1471,9 @@
         <v>0.001</v>
       </c>
       <c r="E47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F47" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1350,6 +1493,9 @@
         <v>0.001</v>
       </c>
       <c r="E48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F48" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1369,6 +1515,9 @@
         <v>0.001</v>
       </c>
       <c r="E49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F49" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1388,6 +1537,9 @@
         <v>0.001</v>
       </c>
       <c r="E50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F50" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1407,6 +1559,9 @@
         <v>0.001</v>
       </c>
       <c r="E51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F51" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1426,6 +1581,9 @@
         <v>0.001</v>
       </c>
       <c r="E52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F52" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1445,6 +1603,9 @@
         <v>0.001</v>
       </c>
       <c r="E53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F53" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1464,6 +1625,9 @@
         <v>0.001</v>
       </c>
       <c r="E54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F54" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1483,6 +1647,9 @@
         <v>0.001</v>
       </c>
       <c r="E55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F55" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1502,6 +1669,9 @@
         <v>0.001</v>
       </c>
       <c r="E56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F56" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1521,6 +1691,9 @@
         <v>0.001</v>
       </c>
       <c r="E57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F57" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1540,6 +1713,9 @@
         <v>0.001</v>
       </c>
       <c r="E58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F58" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1559,6 +1735,9 @@
         <v>0.001</v>
       </c>
       <c r="E59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F59" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1578,6 +1757,9 @@
         <v>0.001</v>
       </c>
       <c r="E60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F60" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1597,6 +1779,9 @@
         <v>0.001</v>
       </c>
       <c r="E61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F61" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1616,6 +1801,9 @@
         <v>0.001</v>
       </c>
       <c r="E62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F62" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1635,6 +1823,9 @@
         <v>0.001</v>
       </c>
       <c r="E63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F63" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1654,6 +1845,9 @@
         <v>0.001</v>
       </c>
       <c r="E64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F64" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1673,6 +1867,9 @@
         <v>0.001</v>
       </c>
       <c r="E65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F65" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1692,6 +1889,9 @@
         <v>0.001</v>
       </c>
       <c r="E66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F66" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1711,6 +1911,9 @@
         <v>0.001</v>
       </c>
       <c r="E67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F67" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1730,6 +1933,9 @@
         <v>0.001</v>
       </c>
       <c r="E68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F68" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1749,6 +1955,9 @@
         <v>0.001</v>
       </c>
       <c r="E69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F69" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1768,6 +1977,9 @@
         <v>0.001</v>
       </c>
       <c r="E70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F70" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1787,6 +1999,9 @@
         <v>0.001</v>
       </c>
       <c r="E71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F71" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1806,6 +2021,9 @@
         <v>0.001</v>
       </c>
       <c r="E72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,6 +2043,9 @@
         <v>0.001</v>
       </c>
       <c r="E73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F73" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1844,6 +2065,9 @@
         <v>0.001</v>
       </c>
       <c r="E74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F74" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1863,6 +2087,9 @@
         <v>0.001</v>
       </c>
       <c r="E75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F75" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1882,6 +2109,9 @@
         <v>0.001</v>
       </c>
       <c r="E76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,6 +2131,9 @@
         <v>0.001</v>
       </c>
       <c r="E77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F77" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1920,6 +2153,9 @@
         <v>0.001</v>
       </c>
       <c r="E78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F78" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1939,6 +2175,9 @@
         <v>0.001</v>
       </c>
       <c r="E79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F79" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1958,6 +2197,9 @@
         <v>0.001</v>
       </c>
       <c r="E80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F80" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1977,6 +2219,9 @@
         <v>0.001</v>
       </c>
       <c r="E81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F81" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1996,6 +2241,9 @@
         <v>0.001</v>
       </c>
       <c r="E82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F82" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2015,6 +2263,9 @@
         <v>0.001</v>
       </c>
       <c r="E83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F83" t="n">
         <v>-34</v>
       </c>
     </row>
@@ -2034,6 +2285,9 @@
         <v>0.001</v>
       </c>
       <c r="E84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F84" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2053,6 +2307,9 @@
         <v>0.001</v>
       </c>
       <c r="E85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F85" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2072,6 +2329,9 @@
         <v>0.001</v>
       </c>
       <c r="E86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F86" t="n">
         <v>97</v>
       </c>
     </row>
@@ -2091,6 +2351,9 @@
         <v>0.001</v>
       </c>
       <c r="E87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F87" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2110,6 +2373,9 @@
         <v>0.001</v>
       </c>
       <c r="E88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F88" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2129,6 +2395,9 @@
         <v>0.001</v>
       </c>
       <c r="E89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F89" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2148,6 +2417,9 @@
         <v>0.001</v>
       </c>
       <c r="E90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F90" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2167,6 +2439,9 @@
         <v>0.001</v>
       </c>
       <c r="E91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F91" t="n">
         <v>87</v>
       </c>
     </row>
@@ -2186,6 +2461,9 @@
         <v>0.001</v>
       </c>
       <c r="E92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F92" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2205,6 +2483,9 @@
         <v>0.001</v>
       </c>
       <c r="E93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F93" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2224,6 +2505,9 @@
         <v>0.001</v>
       </c>
       <c r="E94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F94" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2243,6 +2527,9 @@
         <v>0.001</v>
       </c>
       <c r="E95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F95" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2262,6 +2549,9 @@
         <v>0.001</v>
       </c>
       <c r="E96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F96" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2281,6 +2571,9 @@
         <v>0.001</v>
       </c>
       <c r="E97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F97" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2300,6 +2593,9 @@
         <v>0.001</v>
       </c>
       <c r="E98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F98" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2319,6 +2615,9 @@
         <v>0.001</v>
       </c>
       <c r="E99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F99" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2338,6 +2637,9 @@
         <v>0.001</v>
       </c>
       <c r="E100" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F100" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2357,6 +2659,9 @@
         <v>0.001</v>
       </c>
       <c r="E101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F101" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2376,6 +2681,9 @@
         <v>0.001</v>
       </c>
       <c r="E102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F102" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2395,6 +2703,9 @@
         <v>0.001</v>
       </c>
       <c r="E103" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F103" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2414,6 +2725,9 @@
         <v>0.001</v>
       </c>
       <c r="E104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F104" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2433,6 +2747,9 @@
         <v>0.001</v>
       </c>
       <c r="E105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F105" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2452,6 +2769,9 @@
         <v>0.001</v>
       </c>
       <c r="E106" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F106" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2471,6 +2791,9 @@
         <v>0.001</v>
       </c>
       <c r="E107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F107" t="n">
         <v>90</v>
       </c>
     </row>
@@ -2490,6 +2813,9 @@
         <v>0.001</v>
       </c>
       <c r="E108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F108" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2509,6 +2835,9 @@
         <v>0.001</v>
       </c>
       <c r="E109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F109" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2528,6 +2857,9 @@
         <v>0.001</v>
       </c>
       <c r="E110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F110" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2547,6 +2879,9 @@
         <v>0.001</v>
       </c>
       <c r="E111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F111" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2566,6 +2901,9 @@
         <v>0.001</v>
       </c>
       <c r="E112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F112" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2585,6 +2923,9 @@
         <v>0.001</v>
       </c>
       <c r="E113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F113" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2604,6 +2945,9 @@
         <v>0.001</v>
       </c>
       <c r="E114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F114" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2623,6 +2967,9 @@
         <v>0.001</v>
       </c>
       <c r="E115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F115" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2642,6 +2989,9 @@
         <v>0.001</v>
       </c>
       <c r="E116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F116" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2661,6 +3011,9 @@
         <v>0.001</v>
       </c>
       <c r="E117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F117" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2680,6 +3033,9 @@
         <v>0.001</v>
       </c>
       <c r="E118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F118" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2699,6 +3055,9 @@
         <v>0.001</v>
       </c>
       <c r="E119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F119" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2718,6 +3077,9 @@
         <v>0.001</v>
       </c>
       <c r="E120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F120" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2737,6 +3099,9 @@
         <v>0.001</v>
       </c>
       <c r="E121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F121" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2756,6 +3121,9 @@
         <v>0.001</v>
       </c>
       <c r="E122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F122" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2775,6 +3143,9 @@
         <v>0.001</v>
       </c>
       <c r="E123" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F123" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2794,6 +3165,9 @@
         <v>0.001</v>
       </c>
       <c r="E124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F124" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2813,6 +3187,9 @@
         <v>0.001</v>
       </c>
       <c r="E125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F125" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2832,6 +3209,9 @@
         <v>0.001</v>
       </c>
       <c r="E126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F126" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2851,6 +3231,9 @@
         <v>0.001</v>
       </c>
       <c r="E127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F127" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2870,6 +3253,9 @@
         <v>0.001</v>
       </c>
       <c r="E128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F128" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2889,6 +3275,9 @@
         <v>0.001</v>
       </c>
       <c r="E129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F129" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2908,6 +3297,9 @@
         <v>0.001</v>
       </c>
       <c r="E130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F130" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2927,6 +3319,9 @@
         <v>0.001</v>
       </c>
       <c r="E131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F131" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2946,6 +3341,9 @@
         <v>0.001</v>
       </c>
       <c r="E132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F132" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2965,6 +3363,9 @@
         <v>0.001</v>
       </c>
       <c r="E133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F133" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2984,6 +3385,9 @@
         <v>0.001</v>
       </c>
       <c r="E134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3003,6 +3407,9 @@
         <v>0.001</v>
       </c>
       <c r="E135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F135" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3022,6 +3429,9 @@
         <v>0.001</v>
       </c>
       <c r="E136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3041,6 +3451,9 @@
         <v>0.001</v>
       </c>
       <c r="E137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F137" t="n">
         <v>89</v>
       </c>
     </row>
@@ -3060,6 +3473,9 @@
         <v>0.001</v>
       </c>
       <c r="E138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F138" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3079,6 +3495,9 @@
         <v>0.001</v>
       </c>
       <c r="E139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F139" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3098,6 +3517,9 @@
         <v>0.001</v>
       </c>
       <c r="E140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F140" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3117,6 +3539,9 @@
         <v>0.001</v>
       </c>
       <c r="E141" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F141" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3136,6 +3561,9 @@
         <v>0.001</v>
       </c>
       <c r="E142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F142" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3155,6 +3583,9 @@
         <v>0.001</v>
       </c>
       <c r="E143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F143" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3174,6 +3605,9 @@
         <v>0.001</v>
       </c>
       <c r="E144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F144" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3193,6 +3627,9 @@
         <v>0.001</v>
       </c>
       <c r="E145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F145" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3212,6 +3649,9 @@
         <v>0.001</v>
       </c>
       <c r="E146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F146" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3231,6 +3671,9 @@
         <v>0.001</v>
       </c>
       <c r="E147" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F147" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3250,6 +3693,9 @@
         <v>0.001</v>
       </c>
       <c r="E148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F148" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3269,6 +3715,9 @@
         <v>0.001</v>
       </c>
       <c r="E149" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F149" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -3288,6 +3737,9 @@
         <v>0.001</v>
       </c>
       <c r="E150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F150" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3307,6 +3759,9 @@
         <v>0.001</v>
       </c>
       <c r="E151" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F151" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3326,6 +3781,9 @@
         <v>0.001</v>
       </c>
       <c r="E152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F152" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3345,6 +3803,9 @@
         <v>0.001</v>
       </c>
       <c r="E153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F153" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3364,6 +3825,9 @@
         <v>0.001</v>
       </c>
       <c r="E154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F154" t="n">
         <v>-80</v>
       </c>
     </row>
@@ -3383,6 +3847,9 @@
         <v>0.001</v>
       </c>
       <c r="E155" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F155" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3402,6 +3869,9 @@
         <v>0.001</v>
       </c>
       <c r="E156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F156" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3421,6 +3891,9 @@
         <v>0.001</v>
       </c>
       <c r="E157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F157" t="n">
         <v>98</v>
       </c>
     </row>
@@ -3440,6 +3913,9 @@
         <v>0.001</v>
       </c>
       <c r="E158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F158" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3459,6 +3935,9 @@
         <v>0.001</v>
       </c>
       <c r="E159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F159" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3478,6 +3957,9 @@
         <v>0.001</v>
       </c>
       <c r="E160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F160" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3497,6 +3979,9 @@
         <v>0.001</v>
       </c>
       <c r="E161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F161" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3516,6 +4001,9 @@
         <v>0.001</v>
       </c>
       <c r="E162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F162" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3535,6 +4023,9 @@
         <v>0.001</v>
       </c>
       <c r="E163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F163" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3554,6 +4045,9 @@
         <v>0.001</v>
       </c>
       <c r="E164" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F164" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3573,6 +4067,9 @@
         <v>0.001</v>
       </c>
       <c r="E165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F165" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3592,6 +4089,9 @@
         <v>0.001</v>
       </c>
       <c r="E166" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F166" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3611,6 +4111,9 @@
         <v>0.001</v>
       </c>
       <c r="E167" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3630,6 +4133,9 @@
         <v>0.001</v>
       </c>
       <c r="E168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F168" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3649,6 +4155,9 @@
         <v>0.001</v>
       </c>
       <c r="E169" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F169" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3668,6 +4177,9 @@
         <v>0.001</v>
       </c>
       <c r="E170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F170" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3687,6 +4199,9 @@
         <v>0.001</v>
       </c>
       <c r="E171" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F171" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3706,6 +4221,9 @@
         <v>0.001</v>
       </c>
       <c r="E172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F172" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3725,6 +4243,9 @@
         <v>0.001</v>
       </c>
       <c r="E173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F173" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3744,6 +4265,9 @@
         <v>0.001</v>
       </c>
       <c r="E174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F174" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3763,6 +4287,9 @@
         <v>0.001</v>
       </c>
       <c r="E175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F175" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3782,6 +4309,9 @@
         <v>0.001</v>
       </c>
       <c r="E176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F176" t="n">
         <v>97</v>
       </c>
     </row>
@@ -3801,6 +4331,9 @@
         <v>0.001</v>
       </c>
       <c r="E177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F177" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3820,6 +4353,9 @@
         <v>0.001</v>
       </c>
       <c r="E178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F178" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3839,6 +4375,9 @@
         <v>0.001</v>
       </c>
       <c r="E179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F179" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3858,6 +4397,9 @@
         <v>0.001</v>
       </c>
       <c r="E180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F180" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3877,6 +4419,9 @@
         <v>0.001</v>
       </c>
       <c r="E181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F181" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3896,6 +4441,9 @@
         <v>0.001</v>
       </c>
       <c r="E182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F182" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3915,6 +4463,9 @@
         <v>0.001</v>
       </c>
       <c r="E183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3934,6 +4485,9 @@
         <v>0.001</v>
       </c>
       <c r="E184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F184" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3953,6 +4507,9 @@
         <v>0.001</v>
       </c>
       <c r="E185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F185" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3972,6 +4529,9 @@
         <v>0.001</v>
       </c>
       <c r="E186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F186" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3991,6 +4551,9 @@
         <v>0.001</v>
       </c>
       <c r="E187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F187" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4010,6 +4573,9 @@
         <v>0.001</v>
       </c>
       <c r="E188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F188" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4029,6 +4595,9 @@
         <v>0.001</v>
       </c>
       <c r="E189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F189" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4048,6 +4617,9 @@
         <v>0.001</v>
       </c>
       <c r="E190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F190" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4067,6 +4639,9 @@
         <v>0.001</v>
       </c>
       <c r="E191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F191" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4086,6 +4661,9 @@
         <v>0.001</v>
       </c>
       <c r="E192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F192" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4105,6 +4683,9 @@
         <v>0.001</v>
       </c>
       <c r="E193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F193" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4124,6 +4705,9 @@
         <v>0.001</v>
       </c>
       <c r="E194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F194" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4143,6 +4727,9 @@
         <v>0.001</v>
       </c>
       <c r="E195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F195" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4162,6 +4749,9 @@
         <v>0.001</v>
       </c>
       <c r="E196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F196" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4181,6 +4771,9 @@
         <v>0.001</v>
       </c>
       <c r="E197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F197" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4200,6 +4793,9 @@
         <v>0.001</v>
       </c>
       <c r="E198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4219,6 +4815,9 @@
         <v>0.001</v>
       </c>
       <c r="E199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F199" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4238,6 +4837,9 @@
         <v>0.001</v>
       </c>
       <c r="E200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F200" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4257,6 +4859,9 @@
         <v>0.001</v>
       </c>
       <c r="E201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F201" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4276,6 +4881,9 @@
         <v>0.001</v>
       </c>
       <c r="E202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F202" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4295,6 +4903,9 @@
         <v>0.001</v>
       </c>
       <c r="E203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F203" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -4314,6 +4925,9 @@
         <v>0.001</v>
       </c>
       <c r="E204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F204" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4333,6 +4947,9 @@
         <v>0.001</v>
       </c>
       <c r="E205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4352,6 +4969,9 @@
         <v>0.001</v>
       </c>
       <c r="E206" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F206" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4371,6 +4991,9 @@
         <v>0.001</v>
       </c>
       <c r="E207" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F207" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4390,6 +5013,9 @@
         <v>0.001</v>
       </c>
       <c r="E208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F208" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4409,6 +5035,9 @@
         <v>0.001</v>
       </c>
       <c r="E209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4428,6 +5057,9 @@
         <v>0.001</v>
       </c>
       <c r="E210" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F210" t="n">
         <v>-107</v>
       </c>
     </row>
@@ -4447,6 +5079,9 @@
         <v>0.001</v>
       </c>
       <c r="E211" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F211" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4466,6 +5101,9 @@
         <v>0.001</v>
       </c>
       <c r="E212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F212" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4485,6 +5123,9 @@
         <v>0.001</v>
       </c>
       <c r="E213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F213" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4504,6 +5145,9 @@
         <v>0.001</v>
       </c>
       <c r="E214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F214" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4523,6 +5167,9 @@
         <v>0.001</v>
       </c>
       <c r="E215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F215" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4542,6 +5189,9 @@
         <v>0.001</v>
       </c>
       <c r="E216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F216" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4561,6 +5211,9 @@
         <v>0.001</v>
       </c>
       <c r="E217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F217" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4580,6 +5233,9 @@
         <v>0.001</v>
       </c>
       <c r="E218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F218" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4599,6 +5255,9 @@
         <v>0.001</v>
       </c>
       <c r="E219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F219" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4618,6 +5277,9 @@
         <v>0.001</v>
       </c>
       <c r="E220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F220" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4637,6 +5299,9 @@
         <v>0.001</v>
       </c>
       <c r="E221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F221" t="n">
         <v>58</v>
       </c>
     </row>
@@ -4656,6 +5321,9 @@
         <v>0.001</v>
       </c>
       <c r="E222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F222" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4675,6 +5343,9 @@
         <v>0.001</v>
       </c>
       <c r="E223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F223" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4694,6 +5365,9 @@
         <v>0.001</v>
       </c>
       <c r="E224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F224" t="n">
         <v>-175</v>
       </c>
     </row>
@@ -4713,6 +5387,9 @@
         <v>0.001</v>
       </c>
       <c r="E225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F225" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4732,6 +5409,9 @@
         <v>0.001</v>
       </c>
       <c r="E226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F226" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4751,6 +5431,9 @@
         <v>0.001</v>
       </c>
       <c r="E227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4770,6 +5453,9 @@
         <v>0.001</v>
       </c>
       <c r="E228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F228" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4789,6 +5475,9 @@
         <v>0.01</v>
       </c>
       <c r="E229" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F229" t="n">
         <v>94.40000000000001</v>
       </c>
     </row>
@@ -4808,6 +5497,9 @@
         <v>0.001</v>
       </c>
       <c r="E230" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F230" t="n">
         <v>90.40000000000001</v>
       </c>
     </row>
@@ -4827,6 +5519,9 @@
         <v>0.0005</v>
       </c>
       <c r="E231" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F231" t="n">
         <v>90</v>
       </c>
     </row>
@@ -4846,6 +5541,9 @@
         <v>0.0001</v>
       </c>
       <c r="E232" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F232" t="n">
         <v>55.6</v>
       </c>
     </row>
@@ -4865,6 +5563,9 @@
         <v>0.01</v>
       </c>
       <c r="E233" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F233" t="n">
         <v>92.40000000000001</v>
       </c>
     </row>
@@ -4884,6 +5585,9 @@
         <v>0.001</v>
       </c>
       <c r="E234" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F234" t="n">
         <v>87.2</v>
       </c>
     </row>
@@ -4903,6 +5607,9 @@
         <v>0.0005</v>
       </c>
       <c r="E235" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F235" t="n">
         <v>86.90000000000001</v>
       </c>
     </row>
@@ -4922,6 +5629,9 @@
         <v>0.0001</v>
       </c>
       <c r="E236" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F236" t="n">
         <v>52.4</v>
       </c>
     </row>
@@ -4941,6 +5651,9 @@
         <v>0.01</v>
       </c>
       <c r="E237" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F237" t="n">
         <v>89.5</v>
       </c>
     </row>
@@ -4960,6 +5673,9 @@
         <v>0.001</v>
       </c>
       <c r="E238" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F238" t="n">
         <v>84.2</v>
       </c>
     </row>
@@ -4979,6 +5695,9 @@
         <v>0.0005</v>
       </c>
       <c r="E239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F239" t="n">
         <v>83.3</v>
       </c>
     </row>
@@ -4998,6 +5717,9 @@
         <v>0.0001</v>
       </c>
       <c r="E240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F240" t="n">
         <v>49.5</v>
       </c>
     </row>
@@ -5017,6 +5739,9 @@
         <v>0.01</v>
       </c>
       <c r="E241" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F241" t="n">
         <v>86.8</v>
       </c>
     </row>
@@ -5036,6 +5761,9 @@
         <v>0.001</v>
       </c>
       <c r="E242" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F242" t="n">
         <v>81.2</v>
       </c>
     </row>
@@ -5055,6 +5783,9 @@
         <v>0.0005</v>
       </c>
       <c r="E243" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F243" t="n">
         <v>80.40000000000001</v>
       </c>
     </row>
@@ -5074,6 +5805,9 @@
         <v>0.0001</v>
       </c>
       <c r="E244" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F244" t="n">
         <v>45.7</v>
       </c>
     </row>
@@ -5093,6 +5827,9 @@
         <v>0.1</v>
       </c>
       <c r="E245" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F245" t="n">
         <v>63.5</v>
       </c>
     </row>
@@ -5112,6 +5849,9 @@
         <v>0.05</v>
       </c>
       <c r="E246" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F246" t="n">
         <v>82.59999999999999</v>
       </c>
     </row>
@@ -5131,6 +5871,9 @@
         <v>0.01</v>
       </c>
       <c r="E247" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F247" t="n">
         <v>98.5</v>
       </c>
     </row>
@@ -5150,6 +5893,9 @@
         <v>0.005</v>
       </c>
       <c r="E248" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F248" t="n">
         <v>98.7</v>
       </c>
     </row>
@@ -5169,6 +5915,9 @@
         <v>0.1</v>
       </c>
       <c r="E249" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F249" t="n">
         <v>61</v>
       </c>
     </row>
@@ -5188,6 +5937,9 @@
         <v>0.05</v>
       </c>
       <c r="E250" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F250" t="n">
         <v>80</v>
       </c>
     </row>
@@ -5207,6 +5959,9 @@
         <v>0.01</v>
       </c>
       <c r="E251" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F251" t="n">
         <v>95.5</v>
       </c>
     </row>
@@ -5226,6 +5981,9 @@
         <v>0.005</v>
       </c>
       <c r="E252" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F252" t="n">
         <v>96</v>
       </c>
     </row>
@@ -5245,6 +6003,9 @@
         <v>0.1</v>
       </c>
       <c r="E253" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F253" t="n">
         <v>58.7</v>
       </c>
     </row>
@@ -5264,6 +6025,9 @@
         <v>0.05</v>
       </c>
       <c r="E254" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F254" t="n">
         <v>77</v>
       </c>
     </row>
@@ -5283,6 +6047,9 @@
         <v>0.01</v>
       </c>
       <c r="E255" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F255" t="n">
         <v>92.7</v>
       </c>
     </row>
@@ -5302,6 +6069,9 @@
         <v>0.005</v>
       </c>
       <c r="E256" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F256" t="n">
         <v>94</v>
       </c>
     </row>
@@ -5321,6 +6091,9 @@
         <v>0.1</v>
       </c>
       <c r="E257" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F257" t="n">
         <v>55.1</v>
       </c>
     </row>
@@ -5340,6 +6113,9 @@
         <v>0.05</v>
       </c>
       <c r="E258" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F258" t="n">
         <v>74.3</v>
       </c>
     </row>
@@ -5359,6 +6135,9 @@
         <v>0.01</v>
       </c>
       <c r="E259" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F259" t="n">
         <v>87.8</v>
       </c>
     </row>
@@ -5378,6 +6157,9 @@
         <v>0.005</v>
       </c>
       <c r="E260" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F260" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -5397,6 +6179,9 @@
         <v>1e-05</v>
       </c>
       <c r="E261" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F261" t="n">
         <v>34.53</v>
       </c>
     </row>
@@ -5416,6 +6201,9 @@
         <v>5e-05</v>
       </c>
       <c r="E262" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F262" t="n">
         <v>66.47</v>
       </c>
     </row>
@@ -5435,6 +6223,9 @@
         <v>0.0001</v>
       </c>
       <c r="E263" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F263" t="n">
         <v>72.37</v>
       </c>
     </row>
@@ -5454,6 +6245,9 @@
         <v>0.0005</v>
       </c>
       <c r="E264" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F264" t="n">
         <v>50.35</v>
       </c>
     </row>
@@ -5473,6 +6267,9 @@
         <v>1e-05</v>
       </c>
       <c r="E265" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F265" t="n">
         <v>45.88</v>
       </c>
     </row>
@@ -5492,6 +6289,9 @@
         <v>5e-05</v>
       </c>
       <c r="E266" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F266" t="n">
         <v>68.95</v>
       </c>
     </row>
@@ -5511,6 +6311,9 @@
         <v>0.0001</v>
       </c>
       <c r="E267" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F267" t="n">
         <v>74.31</v>
       </c>
     </row>
@@ -5530,6 +6333,9 @@
         <v>0.0005</v>
       </c>
       <c r="E268" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F268" t="n">
         <v>57.74</v>
       </c>
     </row>
@@ -5549,6 +6355,9 @@
         <v>1e-05</v>
       </c>
       <c r="E269" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F269" t="n">
         <v>55.2</v>
       </c>
     </row>
@@ -5568,6 +6377,9 @@
         <v>5e-05</v>
       </c>
       <c r="E270" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F270" t="n">
         <v>70.93000000000001</v>
       </c>
     </row>
@@ -5587,6 +6399,9 @@
         <v>0.0001</v>
       </c>
       <c r="E271" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F271" t="n">
         <v>77.70999999999999</v>
       </c>
     </row>
@@ -5606,6 +6421,9 @@
         <v>0.0005</v>
       </c>
       <c r="E272" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F272" t="n">
         <v>63.44</v>
       </c>
     </row>
@@ -5625,6 +6443,9 @@
         <v>1e-05</v>
       </c>
       <c r="E273" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F273" t="n">
         <v>77.73</v>
       </c>
     </row>
@@ -5644,6 +6465,9 @@
         <v>5e-05</v>
       </c>
       <c r="E274" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F274" t="n">
         <v>85.22</v>
       </c>
     </row>
@@ -5663,6 +6487,9 @@
         <v>0.0001</v>
       </c>
       <c r="E275" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F275" t="n">
         <v>90.02</v>
       </c>
     </row>
@@ -5682,6 +6509,9 @@
         <v>0.0005</v>
       </c>
       <c r="E276" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F276" t="n">
         <v>83.45</v>
       </c>
     </row>
@@ -5701,6 +6531,9 @@
         <v>1e-05</v>
       </c>
       <c r="E277" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F277" t="n">
         <v>80.09999999999999</v>
       </c>
     </row>
@@ -5720,6 +6553,9 @@
         <v>5e-05</v>
       </c>
       <c r="E278" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F278" t="n">
         <v>86.56</v>
       </c>
     </row>
@@ -5739,6 +6575,9 @@
         <v>0.0001</v>
       </c>
       <c r="E279" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F279" t="n">
         <v>90.89</v>
       </c>
     </row>
@@ -5758,6 +6597,9 @@
         <v>0.0005</v>
       </c>
       <c r="E280" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F280" t="n">
         <v>84.65000000000001</v>
       </c>
     </row>
@@ -5777,6 +6619,9 @@
         <v>1e-05</v>
       </c>
       <c r="E281" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F281" t="n">
         <v>82.41</v>
       </c>
     </row>
@@ -5796,6 +6641,9 @@
         <v>5e-05</v>
       </c>
       <c r="E282" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F282" t="n">
         <v>91.79000000000001</v>
       </c>
     </row>
@@ -5815,6 +6663,9 @@
         <v>0.0001</v>
       </c>
       <c r="E283" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F283" t="n">
         <v>92.19</v>
       </c>
     </row>
@@ -5834,6 +6685,9 @@
         <v>0.0005</v>
       </c>
       <c r="E284" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F284" t="n">
         <v>91.45</v>
       </c>
     </row>
@@ -5853,6 +6707,9 @@
         <v>1e-05</v>
       </c>
       <c r="E285" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F285" t="n">
         <v>78.27</v>
       </c>
     </row>
@@ -5872,6 +6729,9 @@
         <v>5e-05</v>
       </c>
       <c r="E286" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F286" t="n">
         <v>85.97</v>
       </c>
     </row>
@@ -5891,6 +6751,9 @@
         <v>0.0001</v>
       </c>
       <c r="E287" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F287" t="n">
         <v>90.18000000000001</v>
       </c>
     </row>
@@ -5910,6 +6773,9 @@
         <v>0.0005</v>
       </c>
       <c r="E288" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F288" t="n">
         <v>84.37</v>
       </c>
     </row>
@@ -5929,6 +6795,9 @@
         <v>1e-05</v>
       </c>
       <c r="E289" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F289" t="n">
         <v>80.68000000000001</v>
       </c>
     </row>
@@ -5948,6 +6817,9 @@
         <v>5e-05</v>
       </c>
       <c r="E290" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F290" t="n">
         <v>86.97</v>
       </c>
     </row>
@@ -5967,6 +6839,9 @@
         <v>0.0001</v>
       </c>
       <c r="E291" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F291" t="n">
         <v>90.38</v>
       </c>
     </row>
@@ -5986,6 +6861,9 @@
         <v>0.0005</v>
       </c>
       <c r="E292" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F292" t="n">
         <v>85.04000000000001</v>
       </c>
     </row>
@@ -6005,6 +6883,9 @@
         <v>1e-05</v>
       </c>
       <c r="E293" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F293" t="n">
         <v>82.45999999999999</v>
       </c>
     </row>
@@ -6024,6 +6905,9 @@
         <v>5e-05</v>
       </c>
       <c r="E294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F294" t="n">
         <v>91.78</v>
       </c>
     </row>
@@ -6043,6 +6927,9 @@
         <v>0.0001</v>
       </c>
       <c r="E295" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F295" t="n">
         <v>92.25</v>
       </c>
     </row>
@@ -6062,6 +6949,9 @@
         <v>0.0005</v>
       </c>
       <c r="E296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F296" t="n">
         <v>91.45</v>
       </c>
     </row>
@@ -6081,6 +6971,9 @@
         <v>0.0001</v>
       </c>
       <c r="E297" t="n">
+        <v>0</v>
+      </c>
+      <c r="F297" t="n">
         <v>16</v>
       </c>
     </row>
@@ -6100,6 +6993,9 @@
         <v>0.0003</v>
       </c>
       <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6119,6 +7015,9 @@
         <v>0.0004</v>
       </c>
       <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
         <v>43</v>
       </c>
     </row>
@@ -6138,6 +7037,9 @@
         <v>0.0001</v>
       </c>
       <c r="E300" t="n">
+        <v>0</v>
+      </c>
+      <c r="F300" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6157,6 +7059,9 @@
         <v>0.0003</v>
       </c>
       <c r="E301" t="n">
+        <v>0</v>
+      </c>
+      <c r="F301" t="n">
         <v>29</v>
       </c>
     </row>
@@ -6176,6 +7081,9 @@
         <v>0.0004</v>
       </c>
       <c r="E302" t="n">
+        <v>0</v>
+      </c>
+      <c r="F302" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6195,6 +7103,9 @@
         <v>0.0001</v>
       </c>
       <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6214,6 +7125,9 @@
         <v>0.0003</v>
       </c>
       <c r="E304" t="n">
+        <v>0</v>
+      </c>
+      <c r="F304" t="n">
         <v>61</v>
       </c>
     </row>
@@ -6233,6 +7147,9 @@
         <v>0.0004</v>
       </c>
       <c r="E305" t="n">
+        <v>0</v>
+      </c>
+      <c r="F305" t="n">
         <v>73</v>
       </c>
     </row>
@@ -6252,6 +7169,9 @@
         <v>0.0001</v>
       </c>
       <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6271,6 +7191,9 @@
         <v>0.0003</v>
       </c>
       <c r="E307" t="n">
+        <v>0</v>
+      </c>
+      <c r="F307" t="n">
         <v>55</v>
       </c>
     </row>
@@ -6290,6 +7213,9 @@
         <v>0.0004</v>
       </c>
       <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
         <v>65</v>
       </c>
     </row>
@@ -6309,6 +7235,9 @@
         <v>1e-05</v>
       </c>
       <c r="E309" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F309" t="n">
         <v>55.9</v>
       </c>
     </row>
@@ -6328,6 +7257,9 @@
         <v>0.001</v>
       </c>
       <c r="E310" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F310" t="n">
         <v>75.98</v>
       </c>
     </row>
@@ -6347,6 +7279,9 @@
         <v>1e-05</v>
       </c>
       <c r="E311" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F311" t="n">
         <v>55.97</v>
       </c>
     </row>
@@ -6366,6 +7301,9 @@
         <v>5e-05</v>
       </c>
       <c r="E312" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F312" t="n">
         <v>61.66</v>
       </c>
     </row>
@@ -6385,6 +7323,9 @@
         <v>0.0001</v>
       </c>
       <c r="E313" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F313" t="n">
         <v>64.84</v>
       </c>
     </row>
@@ -6404,6 +7345,9 @@
         <v>0.0005</v>
       </c>
       <c r="E314" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F314" t="n">
         <v>70.40000000000001</v>
       </c>
     </row>
@@ -6423,6 +7367,9 @@
         <v>0.001</v>
       </c>
       <c r="E315" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F315" t="n">
         <v>74.2</v>
       </c>
     </row>
@@ -6442,6 +7389,9 @@
         <v>0.01</v>
       </c>
       <c r="E316" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F316" t="n">
         <v>-291</v>
       </c>
     </row>
@@ -6461,6 +7411,9 @@
         <v>0.001</v>
       </c>
       <c r="E317" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F317" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -6480,6 +7433,9 @@
         <v>0.0001</v>
       </c>
       <c r="E318" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F318" t="n">
         <v>64.8</v>
       </c>
     </row>
@@ -6499,6 +7455,9 @@
         <v>5e-05</v>
       </c>
       <c r="E319" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F319" t="n">
         <v>37.7</v>
       </c>
     </row>
@@ -6518,6 +7477,9 @@
         <v>1e-05</v>
       </c>
       <c r="E320" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F320" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -6537,6 +7499,9 @@
         <v>0.01</v>
       </c>
       <c r="E321" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F321" t="n">
         <v>-227</v>
       </c>
     </row>
@@ -6556,6 +7521,9 @@
         <v>0.001</v>
       </c>
       <c r="E322" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F322" t="n">
         <v>40.9</v>
       </c>
     </row>
@@ -6575,6 +7543,9 @@
         <v>0.0001</v>
       </c>
       <c r="E323" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F323" t="n">
         <v>69.2</v>
       </c>
     </row>
@@ -6594,6 +7565,9 @@
         <v>5e-05</v>
       </c>
       <c r="E324" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F324" t="n">
         <v>51</v>
       </c>
     </row>
@@ -6613,6 +7587,9 @@
         <v>1e-05</v>
       </c>
       <c r="E325" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F325" t="n">
         <v>13.4</v>
       </c>
     </row>
@@ -6632,6 +7609,9 @@
         <v>0.01</v>
       </c>
       <c r="E326" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F326" t="n">
         <v>-109</v>
       </c>
     </row>
@@ -6651,6 +7631,9 @@
         <v>0.001</v>
       </c>
       <c r="E327" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F327" t="n">
         <v>66.90000000000001</v>
       </c>
     </row>
@@ -6670,6 +7653,9 @@
         <v>0.0001</v>
       </c>
       <c r="E328" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F328" t="n">
         <v>78.90000000000001</v>
       </c>
     </row>
@@ -6689,6 +7675,9 @@
         <v>5e-05</v>
       </c>
       <c r="E329" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F329" t="n">
         <v>85.2</v>
       </c>
     </row>
@@ -6708,6 +7697,9 @@
         <v>1e-05</v>
       </c>
       <c r="E330" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F330" t="n">
         <v>48.3</v>
       </c>
     </row>
@@ -6727,6 +7719,9 @@
         <v>0.01</v>
       </c>
       <c r="E331" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F331" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -6746,6 +7741,9 @@
         <v>0.001</v>
       </c>
       <c r="E332" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F332" t="n">
         <v>83.3</v>
       </c>
     </row>
@@ -6765,6 +7763,9 @@
         <v>0.0001</v>
       </c>
       <c r="E333" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F333" t="n">
         <v>89.90000000000001</v>
       </c>
     </row>
@@ -6784,6 +7785,9 @@
         <v>5e-05</v>
       </c>
       <c r="E334" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F334" t="n">
         <v>88.09999999999999</v>
       </c>
     </row>
@@ -6803,6 +7807,9 @@
         <v>1e-05</v>
       </c>
       <c r="E335" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F335" t="n">
         <v>80.7</v>
       </c>
     </row>
@@ -6822,6 +7829,9 @@
         <v>0.01</v>
       </c>
       <c r="E336" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F336" t="n">
         <v>20.6</v>
       </c>
     </row>
@@ -6841,6 +7851,9 @@
         <v>0.001</v>
       </c>
       <c r="E337" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F337" t="n">
         <v>88.90000000000001</v>
       </c>
     </row>
@@ -6860,6 +7873,9 @@
         <v>0.0001</v>
       </c>
       <c r="E338" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F338" t="n">
         <v>90.09999999999999</v>
       </c>
     </row>
@@ -6879,6 +7895,9 @@
         <v>5e-05</v>
       </c>
       <c r="E339" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F339" t="n">
         <v>80.3</v>
       </c>
     </row>
@@ -6898,6 +7917,9 @@
         <v>1e-05</v>
       </c>
       <c r="E340" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F340" t="n">
         <v>57.5</v>
       </c>
     </row>
@@ -6917,6 +7939,9 @@
         <v>0.01</v>
       </c>
       <c r="E341" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F341" t="n">
         <v>-4834</v>
       </c>
     </row>
@@ -6936,6 +7961,9 @@
         <v>0.001</v>
       </c>
       <c r="E342" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F342" t="n">
         <v>-1760</v>
       </c>
     </row>
@@ -6955,6 +7983,9 @@
         <v>0.0001</v>
       </c>
       <c r="E343" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F343" t="n">
         <v>-131</v>
       </c>
     </row>
@@ -6974,6 +8005,9 @@
         <v>5e-05</v>
       </c>
       <c r="E344" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F344" t="n">
         <v>-26.8</v>
       </c>
     </row>
@@ -6993,6 +8027,9 @@
         <v>1e-05</v>
       </c>
       <c r="E345" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F345" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -7012,6 +8049,9 @@
         <v>0.01</v>
       </c>
       <c r="E346" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F346" t="n">
         <v>-3813</v>
       </c>
     </row>
@@ -7031,6 +8071,9 @@
         <v>0.001</v>
       </c>
       <c r="E347" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F347" t="n">
         <v>-913</v>
       </c>
     </row>
@@ -7050,6 +8093,9 @@
         <v>0.0001</v>
       </c>
       <c r="E348" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F348" t="n">
         <v>-82.8</v>
       </c>
     </row>
@@ -7069,6 +8115,9 @@
         <v>5e-05</v>
       </c>
       <c r="E349" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F349" t="n">
         <v>24.3</v>
       </c>
     </row>
@@ -7088,6 +8137,9 @@
         <v>1e-05</v>
       </c>
       <c r="E350" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F350" t="n">
         <v>29.1</v>
       </c>
     </row>
@@ -7107,6 +8159,9 @@
         <v>0.01</v>
       </c>
       <c r="E351" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F351" t="n">
         <v>-1569</v>
       </c>
     </row>
@@ -7126,6 +8181,9 @@
         <v>0.001</v>
       </c>
       <c r="E352" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F352" t="n">
         <v>-716</v>
       </c>
     </row>
@@ -7145,6 +8203,9 @@
         <v>0.0001</v>
       </c>
       <c r="E353" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F353" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -7164,6 +8225,9 @@
         <v>5e-05</v>
       </c>
       <c r="E354" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F354" t="n">
         <v>29.1</v>
       </c>
     </row>
@@ -7183,6 +8247,9 @@
         <v>1e-05</v>
       </c>
       <c r="E355" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F355" t="n">
         <v>53.5</v>
       </c>
     </row>
@@ -7202,6 +8269,9 @@
         <v>0.01</v>
       </c>
       <c r="E356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F356" t="n">
         <v>-1318</v>
       </c>
     </row>
@@ -7221,6 +8291,9 @@
         <v>0.001</v>
       </c>
       <c r="E357" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F357" t="n">
         <v>-242</v>
       </c>
     </row>
@@ -7240,6 +8313,9 @@
         <v>0.0001</v>
       </c>
       <c r="E358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F358" t="n">
         <v>67.5</v>
       </c>
     </row>
@@ -7259,6 +8335,9 @@
         <v>5e-05</v>
       </c>
       <c r="E359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F359" t="n">
         <v>79.2</v>
       </c>
     </row>
@@ -7278,6 +8357,9 @@
         <v>1e-05</v>
       </c>
       <c r="E360" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F360" t="n">
         <v>63.7</v>
       </c>
     </row>
@@ -7297,6 +8379,9 @@
         <v>0.01</v>
       </c>
       <c r="E361" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F361" t="n">
         <v>-1374</v>
       </c>
     </row>
@@ -7316,6 +8401,9 @@
         <v>0.001</v>
       </c>
       <c r="E362" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F362" t="n">
         <v>-152</v>
       </c>
     </row>
@@ -7335,6 +8423,9 @@
         <v>0.0001</v>
       </c>
       <c r="E363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F363" t="n">
         <v>14.2</v>
       </c>
     </row>
@@ -7354,6 +8445,9 @@
         <v>5e-05</v>
       </c>
       <c r="E364" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F364" t="n">
         <v>62.7</v>
       </c>
     </row>
@@ -7373,6 +8467,9 @@
         <v>1e-05</v>
       </c>
       <c r="E365" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F365" t="n">
         <v>59.4</v>
       </c>
     </row>
@@ -7392,6 +8489,9 @@
         <v>0.001</v>
       </c>
       <c r="E366" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F366" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -7411,6 +8511,9 @@
         <v>0.001</v>
       </c>
       <c r="E367" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F367" t="n">
         <v>94.59999999999999</v>
       </c>
     </row>
@@ -7430,6 +8533,9 @@
         <v>0.001</v>
       </c>
       <c r="E368" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F368" t="n">
         <v>96</v>
       </c>
     </row>
@@ -7449,6 +8555,9 @@
         <v>0.001</v>
       </c>
       <c r="E369" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F369" t="n">
         <v>96.8</v>
       </c>
     </row>
@@ -7468,6 +8577,9 @@
         <v>0.001</v>
       </c>
       <c r="E370" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F370" t="n">
         <v>97</v>
       </c>
     </row>
@@ -7487,6 +8599,9 @@
         <v>0.001</v>
       </c>
       <c r="E371" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F371" t="n">
         <v>97.3</v>
       </c>
     </row>
@@ -7506,6 +8621,9 @@
         <v>0.001</v>
       </c>
       <c r="E372" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F372" t="n">
         <v>97.5</v>
       </c>
     </row>
@@ -7525,6 +8643,9 @@
         <v>0.001</v>
       </c>
       <c r="E373" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F373" t="n">
         <v>82.3</v>
       </c>
     </row>
@@ -7544,6 +8665,9 @@
         <v>0.001</v>
       </c>
       <c r="E374" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F374" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -7563,6 +8687,9 @@
         <v>0.001</v>
       </c>
       <c r="E375" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F375" t="n">
         <v>93.5</v>
       </c>
     </row>
@@ -7582,6 +8709,9 @@
         <v>0.001</v>
       </c>
       <c r="E376" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F376" t="n">
         <v>96.3</v>
       </c>
     </row>
@@ -7601,6 +8731,9 @@
         <v>0.001</v>
       </c>
       <c r="E377" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F377" t="n">
         <v>96.5</v>
       </c>
     </row>
@@ -7620,6 +8753,9 @@
         <v>0.001</v>
       </c>
       <c r="E378" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F378" t="n">
         <v>96.7</v>
       </c>
     </row>
@@ -7639,6 +8775,9 @@
         <v>0.001</v>
       </c>
       <c r="E379" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F379" t="n">
         <v>97.3</v>
       </c>
     </row>
@@ -7658,6 +8797,9 @@
         <v>0.001</v>
       </c>
       <c r="E380" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F380" t="n">
         <v>94.3</v>
       </c>
     </row>
@@ -7677,6 +8819,9 @@
         <v>0.001</v>
       </c>
       <c r="E381" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F381" t="n">
         <v>93.59999999999999</v>
       </c>
     </row>
@@ -7696,6 +8841,9 @@
         <v>0.001</v>
       </c>
       <c r="E382" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F382" t="n">
         <v>91.5</v>
       </c>
     </row>
@@ -7715,6 +8863,9 @@
         <v>0.001</v>
       </c>
       <c r="E383" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F383" t="n">
         <v>93</v>
       </c>
     </row>
@@ -7734,6 +8885,9 @@
         <v>0.001</v>
       </c>
       <c r="E384" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F384" t="n">
         <v>93.3</v>
       </c>
     </row>
@@ -7753,6 +8907,9 @@
         <v>0.001</v>
       </c>
       <c r="E385" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F385" t="n">
         <v>93.40000000000001</v>
       </c>
     </row>
@@ -7772,6 +8929,9 @@
         <v>0.001</v>
       </c>
       <c r="E386" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F386" t="n">
         <v>93.90000000000001</v>
       </c>
     </row>
@@ -7791,6 +8951,9 @@
         <v>0.001</v>
       </c>
       <c r="E387" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F387" t="n">
         <v>77.09999999999999</v>
       </c>
     </row>
@@ -7810,6 +8973,9 @@
         <v>0.001</v>
       </c>
       <c r="E388" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F388" t="n">
         <v>80.5</v>
       </c>
     </row>
@@ -7829,6 +8995,9 @@
         <v>0.001</v>
       </c>
       <c r="E389" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F389" t="n">
         <v>82.3</v>
       </c>
     </row>
@@ -7848,6 +9017,9 @@
         <v>0.001</v>
       </c>
       <c r="E390" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F390" t="n">
         <v>87.90000000000001</v>
       </c>
     </row>
@@ -7867,6 +9039,9 @@
         <v>0.001</v>
       </c>
       <c r="E391" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F391" t="n">
         <v>89.09999999999999</v>
       </c>
     </row>
@@ -7886,6 +9061,9 @@
         <v>0.001</v>
       </c>
       <c r="E392" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F392" t="n">
         <v>93.59999999999999</v>
       </c>
     </row>
@@ -7905,6 +9083,9 @@
         <v>0.001</v>
       </c>
       <c r="E393" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F393" t="n">
         <v>95.90000000000001</v>
       </c>
     </row>
@@ -7924,6 +9105,9 @@
         <v>1e-05</v>
       </c>
       <c r="E394" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F394" t="n">
         <v>80</v>
       </c>
     </row>
@@ -7943,6 +9127,9 @@
         <v>1e-05</v>
       </c>
       <c r="E395" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F395" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -7962,6 +9149,9 @@
         <v>1e-05</v>
       </c>
       <c r="E396" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F396" t="n">
         <v>93.8</v>
       </c>
     </row>
@@ -7981,6 +9171,9 @@
         <v>1e-05</v>
       </c>
       <c r="E397" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F397" t="n">
         <v>94.90000000000001</v>
       </c>
     </row>
@@ -8000,6 +9193,9 @@
         <v>1e-05</v>
       </c>
       <c r="E398" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F398" t="n">
         <v>96</v>
       </c>
     </row>
@@ -8019,6 +9215,9 @@
         <v>1e-05</v>
       </c>
       <c r="E399" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F399" t="n">
         <v>96.3</v>
       </c>
     </row>
@@ -8038,6 +9237,9 @@
         <v>1e-05</v>
       </c>
       <c r="E400" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F400" t="n">
         <v>97.40000000000001</v>
       </c>
     </row>
@@ -8057,6 +9259,9 @@
         <v>1e-05</v>
       </c>
       <c r="E401" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F401" t="n">
         <v>78.3</v>
       </c>
     </row>
@@ -8076,6 +9281,9 @@
         <v>1e-05</v>
       </c>
       <c r="E402" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F402" t="n">
         <v>84.3</v>
       </c>
     </row>
@@ -8095,6 +9303,9 @@
         <v>1e-05</v>
       </c>
       <c r="E403" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F403" t="n">
         <v>91</v>
       </c>
     </row>
@@ -8114,6 +9325,9 @@
         <v>1e-05</v>
       </c>
       <c r="E404" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F404" t="n">
         <v>94.2</v>
       </c>
     </row>
@@ -8133,6 +9347,9 @@
         <v>1e-05</v>
       </c>
       <c r="E405" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F405" t="n">
         <v>95.7</v>
       </c>
     </row>
@@ -8152,6 +9369,9 @@
         <v>1e-05</v>
       </c>
       <c r="E406" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F406" t="n">
         <v>96.2</v>
       </c>
     </row>
@@ -8171,6 +9391,9 @@
         <v>1e-05</v>
       </c>
       <c r="E407" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F407" t="n">
         <v>97.3</v>
       </c>
     </row>
@@ -8190,6 +9413,9 @@
         <v>1e-05</v>
       </c>
       <c r="E408" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F408" t="n">
         <v>75.09999999999999</v>
       </c>
     </row>
@@ -8209,6 +9435,9 @@
         <v>1e-05</v>
       </c>
       <c r="E409" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F409" t="n">
         <v>86</v>
       </c>
     </row>
@@ -8228,6 +9457,9 @@
         <v>1e-05</v>
       </c>
       <c r="E410" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F410" t="n">
         <v>89.09999999999999</v>
       </c>
     </row>
@@ -8247,6 +9479,9 @@
         <v>1e-05</v>
       </c>
       <c r="E411" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F411" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -8266,6 +9501,9 @@
         <v>1e-05</v>
       </c>
       <c r="E412" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F412" t="n">
         <v>92.3</v>
       </c>
     </row>
@@ -8285,6 +9523,9 @@
         <v>1e-05</v>
       </c>
       <c r="E413" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F413" t="n">
         <v>93.3</v>
       </c>
     </row>
@@ -8304,6 +9545,9 @@
         <v>1e-05</v>
       </c>
       <c r="E414" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F414" t="n">
         <v>93.8</v>
       </c>
     </row>
@@ -8323,6 +9567,9 @@
         <v>1e-05</v>
       </c>
       <c r="E415" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F415" t="n">
         <v>78.8</v>
       </c>
     </row>
@@ -8342,6 +9589,9 @@
         <v>1e-05</v>
       </c>
       <c r="E416" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F416" t="n">
         <v>81</v>
       </c>
     </row>
@@ -8361,6 +9611,9 @@
         <v>1e-05</v>
       </c>
       <c r="E417" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F417" t="n">
         <v>84</v>
       </c>
     </row>
@@ -8380,6 +9633,9 @@
         <v>1e-05</v>
       </c>
       <c r="E418" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F418" t="n">
         <v>87.3</v>
       </c>
     </row>
@@ -8399,6 +9655,9 @@
         <v>1e-05</v>
       </c>
       <c r="E419" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F419" t="n">
         <v>88.8</v>
       </c>
     </row>
@@ -8418,6 +9677,9 @@
         <v>1e-05</v>
       </c>
       <c r="E420" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F420" t="n">
         <v>90.7</v>
       </c>
     </row>
@@ -8437,6 +9699,9 @@
         <v>0.003</v>
       </c>
       <c r="E421" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F421" t="n">
         <v>22.73</v>
       </c>
     </row>
@@ -8456,6 +9721,9 @@
         <v>0.003</v>
       </c>
       <c r="E422" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F422" t="n">
         <v>83.2</v>
       </c>
     </row>
@@ -8475,6 +9743,9 @@
         <v>0.003</v>
       </c>
       <c r="E423" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F423" t="n">
         <v>87.48</v>
       </c>
     </row>
@@ -8494,6 +9765,9 @@
         <v>0.003</v>
       </c>
       <c r="E424" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F424" t="n">
         <v>89.79000000000001</v>
       </c>
     </row>
@@ -8513,6 +9787,9 @@
         <v>0.003</v>
       </c>
       <c r="E425" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F425" t="n">
         <v>36.95</v>
       </c>
     </row>
@@ -8532,6 +9809,9 @@
         <v>0.003</v>
       </c>
       <c r="E426" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F426" t="n">
         <v>42.71</v>
       </c>
     </row>
@@ -8551,6 +9831,9 @@
         <v>0.003</v>
       </c>
       <c r="E427" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F427" t="n">
         <v>70.62</v>
       </c>
     </row>
@@ -8570,6 +9853,9 @@
         <v>0.003</v>
       </c>
       <c r="E428" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F428" t="n">
         <v>85.3</v>
       </c>
     </row>
@@ -8589,6 +9875,9 @@
         <v>0.003</v>
       </c>
       <c r="E429" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F429" t="n">
         <v>6.46</v>
       </c>
     </row>
@@ -8608,6 +9897,9 @@
         <v>0.003</v>
       </c>
       <c r="E430" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F430" t="n">
         <v>17.73</v>
       </c>
     </row>
@@ -8627,6 +9919,9 @@
         <v>0.003</v>
       </c>
       <c r="E431" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F431" t="n">
         <v>42.54</v>
       </c>
     </row>
@@ -8646,6 +9941,9 @@
         <v>0.003</v>
       </c>
       <c r="E432" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F432" t="n">
         <v>66.66</v>
       </c>
     </row>
@@ -8665,6 +9963,9 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="E433" t="n">
+        <v>0</v>
+      </c>
+      <c r="F433" t="n">
         <v>53.17</v>
       </c>
     </row>
@@ -8684,6 +9985,9 @@
         <v>0.0012</v>
       </c>
       <c r="E434" t="n">
+        <v>0</v>
+      </c>
+      <c r="F434" t="n">
         <v>61.48</v>
       </c>
     </row>
@@ -8703,6 +10007,9 @@
         <v>0.0018</v>
       </c>
       <c r="E435" t="n">
+        <v>0</v>
+      </c>
+      <c r="F435" t="n">
         <v>61.76</v>
       </c>
     </row>
@@ -8722,6 +10029,9 @@
         <v>0.0024</v>
       </c>
       <c r="E436" t="n">
+        <v>0</v>
+      </c>
+      <c r="F436" t="n">
         <v>67.92</v>
       </c>
     </row>
@@ -8741,6 +10051,9 @@
         <v>0.003</v>
       </c>
       <c r="E437" t="n">
+        <v>0</v>
+      </c>
+      <c r="F437" t="n">
         <v>72.22</v>
       </c>
     </row>
@@ -8760,6 +10073,9 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="E438" t="n">
+        <v>0</v>
+      </c>
+      <c r="F438" t="n">
         <v>58.23</v>
       </c>
     </row>
@@ -8779,6 +10095,9 @@
         <v>0.0012</v>
       </c>
       <c r="E439" t="n">
+        <v>0</v>
+      </c>
+      <c r="F439" t="n">
         <v>64.34999999999999</v>
       </c>
     </row>
@@ -8798,6 +10117,9 @@
         <v>0.0018</v>
       </c>
       <c r="E440" t="n">
+        <v>0</v>
+      </c>
+      <c r="F440" t="n">
         <v>78.39</v>
       </c>
     </row>
@@ -8817,6 +10139,9 @@
         <v>0.0024</v>
       </c>
       <c r="E441" t="n">
+        <v>0</v>
+      </c>
+      <c r="F441" t="n">
         <v>79.83</v>
       </c>
     </row>
@@ -8836,6 +10161,9 @@
         <v>0.003</v>
       </c>
       <c r="E442" t="n">
+        <v>0</v>
+      </c>
+      <c r="F442" t="n">
         <v>82.95999999999999</v>
       </c>
     </row>
@@ -8855,6 +10183,9 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="E443" t="n">
+        <v>0</v>
+      </c>
+      <c r="F443" t="n">
         <v>74.31999999999999</v>
       </c>
     </row>
@@ -8874,6 +10205,9 @@
         <v>0.0012</v>
       </c>
       <c r="E444" t="n">
+        <v>0</v>
+      </c>
+      <c r="F444" t="n">
         <v>74.81</v>
       </c>
     </row>
@@ -8893,6 +10227,9 @@
         <v>0.0018</v>
       </c>
       <c r="E445" t="n">
+        <v>0</v>
+      </c>
+      <c r="F445" t="n">
         <v>78.43000000000001</v>
       </c>
     </row>
@@ -8912,6 +10249,9 @@
         <v>0.0024</v>
       </c>
       <c r="E446" t="n">
+        <v>0</v>
+      </c>
+      <c r="F446" t="n">
         <v>80.58</v>
       </c>
     </row>
@@ -8931,6 +10271,9 @@
         <v>0.003</v>
       </c>
       <c r="E447" t="n">
+        <v>0</v>
+      </c>
+      <c r="F447" t="n">
         <v>83.92</v>
       </c>
     </row>
@@ -8950,6 +10293,9 @@
         <v>0.01</v>
       </c>
       <c r="E448" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F448" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -8969,6 +10315,9 @@
         <v>0.021</v>
       </c>
       <c r="E449" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F449" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -8988,6 +10337,9 @@
         <v>0.031</v>
       </c>
       <c r="E450" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F450" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9007,6 +10359,9 @@
         <v>0.042</v>
       </c>
       <c r="E451" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F451" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9026,6 +10381,9 @@
         <v>0.01</v>
       </c>
       <c r="E452" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F452" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9045,6 +10403,9 @@
         <v>0.021</v>
       </c>
       <c r="E453" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F453" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9064,6 +10425,9 @@
         <v>0.031</v>
       </c>
       <c r="E454" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F454" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9083,6 +10447,9 @@
         <v>0.042</v>
       </c>
       <c r="E455" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F455" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9102,6 +10469,9 @@
         <v>0.01</v>
       </c>
       <c r="E456" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F456" t="n">
         <v>85</v>
       </c>
     </row>
@@ -9121,6 +10491,9 @@
         <v>0.021</v>
       </c>
       <c r="E457" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F457" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9140,6 +10513,9 @@
         <v>0.031</v>
       </c>
       <c r="E458" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F458" t="n">
         <v>81</v>
       </c>
     </row>
@@ -9159,6 +10535,9 @@
         <v>0.042</v>
       </c>
       <c r="E459" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F459" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9178,6 +10557,9 @@
         <v>0.01</v>
       </c>
       <c r="E460" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F460" t="n">
         <v>87</v>
       </c>
     </row>
@@ -9197,6 +10579,9 @@
         <v>0.021</v>
       </c>
       <c r="E461" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F461" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -9216,6 +10601,9 @@
         <v>0.031</v>
       </c>
       <c r="E462" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F462" t="n">
         <v>75</v>
       </c>
     </row>
@@ -9235,6 +10623,9 @@
         <v>0.042</v>
       </c>
       <c r="E463" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F463" t="n">
         <v>75</v>
       </c>
     </row>
@@ -9254,6 +10645,9 @@
         <v>0.01</v>
       </c>
       <c r="E464" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F464" t="n">
         <v>82</v>
       </c>
     </row>
@@ -9273,6 +10667,9 @@
         <v>0.021</v>
       </c>
       <c r="E465" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F465" t="n">
         <v>90</v>
       </c>
     </row>
@@ -9292,6 +10689,9 @@
         <v>0.031</v>
       </c>
       <c r="E466" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F466" t="n">
         <v>77</v>
       </c>
     </row>
@@ -9311,6 +10711,9 @@
         <v>0.042</v>
       </c>
       <c r="E467" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F467" t="n">
         <v>77</v>
       </c>
     </row>
@@ -9330,6 +10733,9 @@
         <v>0.01</v>
       </c>
       <c r="E468" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F468" t="n">
         <v>75</v>
       </c>
     </row>
@@ -9349,6 +10755,9 @@
         <v>0.021</v>
       </c>
       <c r="E469" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F469" t="n">
         <v>90</v>
       </c>
     </row>
@@ -9368,6 +10777,9 @@
         <v>0.031</v>
       </c>
       <c r="E470" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F470" t="n">
         <v>67</v>
       </c>
     </row>
@@ -9387,6 +10799,9 @@
         <v>0.042</v>
       </c>
       <c r="E471" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F471" t="n">
         <v>67</v>
       </c>
     </row>
@@ -9406,6 +10821,9 @@
         <v>0.01</v>
       </c>
       <c r="E472" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F472" t="n">
         <v>43</v>
       </c>
     </row>
@@ -9425,6 +10843,9 @@
         <v>0.021</v>
       </c>
       <c r="E473" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F473" t="n">
         <v>92</v>
       </c>
     </row>
@@ -9444,6 +10865,9 @@
         <v>0.031</v>
       </c>
       <c r="E474" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F474" t="n">
         <v>62</v>
       </c>
     </row>
@@ -9463,6 +10887,9 @@
         <v>0.042</v>
       </c>
       <c r="E475" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F475" t="n">
         <v>73</v>
       </c>
     </row>
@@ -9482,6 +10909,9 @@
         <v>0.01</v>
       </c>
       <c r="E476" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F476" t="n">
         <v>43</v>
       </c>
     </row>
@@ -9501,6 +10931,9 @@
         <v>0.021</v>
       </c>
       <c r="E477" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F477" t="n">
         <v>83</v>
       </c>
     </row>
@@ -9520,6 +10953,9 @@
         <v>0.031</v>
       </c>
       <c r="E478" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F478" t="n">
         <v>54</v>
       </c>
     </row>
@@ -9539,6 +10975,9 @@
         <v>0.042</v>
       </c>
       <c r="E479" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F479" t="n">
         <v>63</v>
       </c>
     </row>
@@ -9558,6 +10997,9 @@
         <v>0.01</v>
       </c>
       <c r="E480" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F480" t="n">
         <v>43</v>
       </c>
     </row>
@@ -9577,6 +11019,9 @@
         <v>0.021</v>
       </c>
       <c r="E481" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F481" t="n">
         <v>73</v>
       </c>
     </row>
@@ -9596,6 +11041,9 @@
         <v>0.031</v>
       </c>
       <c r="E482" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F482" t="n">
         <v>40</v>
       </c>
     </row>
@@ -9615,6 +11063,9 @@
         <v>0.042</v>
       </c>
       <c r="E483" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F483" t="n">
         <v>60</v>
       </c>
     </row>
@@ -9634,6 +11085,9 @@
         <v>0.01</v>
       </c>
       <c r="E484" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F484" t="n">
         <v>43</v>
       </c>
     </row>
@@ -9653,6 +11107,9 @@
         <v>0.021</v>
       </c>
       <c r="E485" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F485" t="n">
         <v>46</v>
       </c>
     </row>
@@ -9672,6 +11129,9 @@
         <v>0.031</v>
       </c>
       <c r="E486" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F486" t="n">
         <v>40</v>
       </c>
     </row>
@@ -9691,6 +11151,9 @@
         <v>0.042</v>
       </c>
       <c r="E487" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F487" t="n">
         <v>54</v>
       </c>
     </row>
@@ -9710,6 +11173,9 @@
         <v>0.01</v>
       </c>
       <c r="E488" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F488" t="n">
         <v>49</v>
       </c>
     </row>
@@ -9729,6 +11195,9 @@
         <v>0.021</v>
       </c>
       <c r="E489" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F489" t="n">
         <v>40</v>
       </c>
     </row>
@@ -9748,6 +11217,9 @@
         <v>0.031</v>
       </c>
       <c r="E490" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F490" t="n">
         <v>45</v>
       </c>
     </row>
@@ -9767,6 +11239,9 @@
         <v>0.042</v>
       </c>
       <c r="E491" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F491" t="n">
         <v>56</v>
       </c>
     </row>
@@ -9786,6 +11261,9 @@
         <v>0.01</v>
       </c>
       <c r="E492" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F492" t="n">
         <v>50</v>
       </c>
     </row>
@@ -9805,6 +11283,9 @@
         <v>0.021</v>
       </c>
       <c r="E493" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F493" t="n">
         <v>40</v>
       </c>
     </row>
@@ -9824,6 +11305,9 @@
         <v>0.031</v>
       </c>
       <c r="E494" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F494" t="n">
         <v>38</v>
       </c>
     </row>
@@ -9843,6 +11327,9 @@
         <v>0.042</v>
       </c>
       <c r="E495" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F495" t="n">
         <v>50</v>
       </c>
     </row>
@@ -9862,6 +11349,9 @@
         <v>0.01</v>
       </c>
       <c r="E496" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F496" t="n">
         <v>52</v>
       </c>
     </row>
@@ -9881,6 +11371,9 @@
         <v>0.021</v>
       </c>
       <c r="E497" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F497" t="n">
         <v>44</v>
       </c>
     </row>
@@ -9900,6 +11393,9 @@
         <v>0.031</v>
       </c>
       <c r="E498" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F498" t="n">
         <v>42</v>
       </c>
     </row>
@@ -9919,6 +11415,9 @@
         <v>0.042</v>
       </c>
       <c r="E499" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F499" t="n">
         <v>42</v>
       </c>
     </row>
@@ -9938,6 +11437,9 @@
         <v>0.01</v>
       </c>
       <c r="E500" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F500" t="n">
         <v>52</v>
       </c>
     </row>
@@ -9957,6 +11459,9 @@
         <v>0.021</v>
       </c>
       <c r="E501" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F501" t="n">
         <v>44</v>
       </c>
     </row>
@@ -9976,6 +11481,9 @@
         <v>0.031</v>
       </c>
       <c r="E502" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F502" t="n">
         <v>43</v>
       </c>
     </row>
@@ -9995,6 +11503,9 @@
         <v>0.042</v>
       </c>
       <c r="E503" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F503" t="n">
         <v>42</v>
       </c>
     </row>
@@ -10014,6 +11525,9 @@
         <v>0.011</v>
       </c>
       <c r="E504" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F504" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10033,6 +11547,9 @@
         <v>0.022</v>
       </c>
       <c r="E505" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F505" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10052,6 +11569,9 @@
         <v>0.033</v>
       </c>
       <c r="E506" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F506" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10071,6 +11591,9 @@
         <v>0.044</v>
       </c>
       <c r="E507" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F507" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10090,6 +11613,9 @@
         <v>0.011</v>
       </c>
       <c r="E508" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F508" t="n">
         <v>70</v>
       </c>
     </row>
@@ -10109,6 +11635,9 @@
         <v>0.022</v>
       </c>
       <c r="E509" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F509" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10128,6 +11657,9 @@
         <v>0.033</v>
       </c>
       <c r="E510" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F510" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10147,6 +11679,9 @@
         <v>0.044</v>
       </c>
       <c r="E511" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F511" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10166,6 +11701,9 @@
         <v>0.011</v>
       </c>
       <c r="E512" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F512" t="n">
         <v>30</v>
       </c>
     </row>
@@ -10185,6 +11723,9 @@
         <v>0.022</v>
       </c>
       <c r="E513" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F513" t="n">
         <v>47</v>
       </c>
     </row>
@@ -10204,6 +11745,9 @@
         <v>0.033</v>
       </c>
       <c r="E514" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F514" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10223,6 +11767,9 @@
         <v>0.044</v>
       </c>
       <c r="E515" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F515" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10242,6 +11789,9 @@
         <v>0.011</v>
       </c>
       <c r="E516" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F516" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10261,6 +11811,9 @@
         <v>0.022</v>
       </c>
       <c r="E517" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F517" t="n">
         <v>62</v>
       </c>
     </row>
@@ -10280,6 +11833,9 @@
         <v>0.033</v>
       </c>
       <c r="E518" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F518" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10299,6 +11855,9 @@
         <v>0.044</v>
       </c>
       <c r="E519" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F519" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10318,6 +11877,9 @@
         <v>0.011</v>
       </c>
       <c r="E520" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F520" t="n">
         <v>23</v>
       </c>
     </row>
@@ -10337,6 +11899,9 @@
         <v>0.022</v>
       </c>
       <c r="E521" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F521" t="n">
         <v>65</v>
       </c>
     </row>
@@ -10356,6 +11921,9 @@
         <v>0.033</v>
       </c>
       <c r="E522" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F522" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10375,6 +11943,9 @@
         <v>0.044</v>
       </c>
       <c r="E523" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F523" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10394,6 +11965,9 @@
         <v>0.011</v>
       </c>
       <c r="E524" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F524" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10413,6 +11987,9 @@
         <v>0.022</v>
       </c>
       <c r="E525" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F525" t="n">
         <v>67</v>
       </c>
     </row>
@@ -10432,6 +12009,9 @@
         <v>0.033</v>
       </c>
       <c r="E526" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F526" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10451,6 +12031,9 @@
         <v>0.044</v>
       </c>
       <c r="E527" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F527" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10470,6 +12053,9 @@
         <v>0.011</v>
       </c>
       <c r="E528" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F528" t="n">
         <v>22</v>
       </c>
     </row>
@@ -10489,6 +12075,9 @@
         <v>0.022</v>
       </c>
       <c r="E529" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F529" t="n">
         <v>53</v>
       </c>
     </row>
@@ -10508,6 +12097,9 @@
         <v>0.033</v>
       </c>
       <c r="E530" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F530" t="n">
         <v>67</v>
       </c>
     </row>
@@ -10527,6 +12119,9 @@
         <v>0.044</v>
       </c>
       <c r="E531" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F531" t="n">
         <v>99.90000000000001</v>
       </c>
     </row>
@@ -10546,6 +12141,9 @@
         <v>0.011</v>
       </c>
       <c r="E532" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F532" t="n">
         <v>10</v>
       </c>
     </row>
@@ -10565,6 +12163,9 @@
         <v>0.022</v>
       </c>
       <c r="E533" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F533" t="n">
         <v>53</v>
       </c>
     </row>
@@ -10584,6 +12185,9 @@
         <v>0.033</v>
       </c>
       <c r="E534" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F534" t="n">
         <v>55</v>
       </c>
     </row>
@@ -10603,6 +12207,9 @@
         <v>0.044</v>
       </c>
       <c r="E535" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F535" t="n">
         <v>90</v>
       </c>
     </row>
@@ -10622,6 +12229,9 @@
         <v>0.011</v>
       </c>
       <c r="E536" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F536" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10641,6 +12251,9 @@
         <v>0.022</v>
       </c>
       <c r="E537" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F537" t="n">
         <v>43</v>
       </c>
     </row>
@@ -10660,6 +12273,9 @@
         <v>0.033</v>
       </c>
       <c r="E538" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F538" t="n">
         <v>57</v>
       </c>
     </row>
@@ -10679,6 +12295,9 @@
         <v>0.044</v>
       </c>
       <c r="E539" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F539" t="n">
         <v>91</v>
       </c>
     </row>
@@ -10698,6 +12317,9 @@
         <v>0.011</v>
       </c>
       <c r="E540" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F540" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10717,6 +12339,9 @@
         <v>0.022</v>
       </c>
       <c r="E541" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F541" t="n">
         <v>43</v>
       </c>
     </row>
@@ -10736,6 +12361,9 @@
         <v>0.033</v>
       </c>
       <c r="E542" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F542" t="n">
         <v>58</v>
       </c>
     </row>
@@ -10755,6 +12383,9 @@
         <v>0.044</v>
       </c>
       <c r="E543" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F543" t="n">
         <v>91</v>
       </c>
     </row>
@@ -10774,6 +12405,9 @@
         <v>0.011</v>
       </c>
       <c r="E544" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F544" t="n">
         <v>12</v>
       </c>
     </row>
@@ -10793,6 +12427,9 @@
         <v>0.022</v>
       </c>
       <c r="E545" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F545" t="n">
         <v>46</v>
       </c>
     </row>
@@ -10812,6 +12449,9 @@
         <v>0.033</v>
       </c>
       <c r="E546" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F546" t="n">
         <v>59</v>
       </c>
     </row>
@@ -10831,6 +12471,9 @@
         <v>0.044</v>
       </c>
       <c r="E547" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F547" t="n">
         <v>92</v>
       </c>
     </row>
@@ -10850,6 +12493,9 @@
         <v>0.011</v>
       </c>
       <c r="E548" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F548" t="n">
         <v>11</v>
       </c>
     </row>
@@ -10869,6 +12515,9 @@
         <v>0.022</v>
       </c>
       <c r="E549" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F549" t="n">
         <v>45</v>
       </c>
     </row>
@@ -10888,6 +12537,9 @@
         <v>0.033</v>
       </c>
       <c r="E550" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F550" t="n">
         <v>58</v>
       </c>
     </row>
@@ -10907,6 +12559,9 @@
         <v>0.044</v>
       </c>
       <c r="E551" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F551" t="n">
         <v>93</v>
       </c>
     </row>
@@ -10926,6 +12581,9 @@
         <v>0.011</v>
       </c>
       <c r="E552" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F552" t="n">
         <v>18</v>
       </c>
     </row>
@@ -10945,6 +12603,9 @@
         <v>0.022</v>
       </c>
       <c r="E553" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F553" t="n">
         <v>51</v>
       </c>
     </row>
@@ -10964,6 +12625,9 @@
         <v>0.033</v>
       </c>
       <c r="E554" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F554" t="n">
         <v>60</v>
       </c>
     </row>
@@ -10983,6 +12647,9 @@
         <v>0.044</v>
       </c>
       <c r="E555" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F555" t="n">
         <v>94</v>
       </c>
     </row>
@@ -11002,6 +12669,9 @@
         <v>0.011</v>
       </c>
       <c r="E556" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F556" t="n">
         <v>19</v>
       </c>
     </row>
@@ -11021,6 +12691,9 @@
         <v>0.022</v>
       </c>
       <c r="E557" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F557" t="n">
         <v>50</v>
       </c>
     </row>
@@ -11040,6 +12713,9 @@
         <v>0.033</v>
       </c>
       <c r="E558" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F558" t="n">
         <v>59</v>
       </c>
     </row>
@@ -11059,6 +12735,9 @@
         <v>0.044</v>
       </c>
       <c r="E559" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F559" t="n">
         <v>83</v>
       </c>
     </row>
@@ -11078,6 +12757,9 @@
         <v>0.0001</v>
       </c>
       <c r="E560" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F560" t="n">
         <v>20.79</v>
       </c>
     </row>
@@ -11097,6 +12779,9 @@
         <v>0.0001</v>
       </c>
       <c r="E561" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F561" t="n">
         <v>60.35</v>
       </c>
     </row>
@@ -11116,6 +12801,9 @@
         <v>0.0001</v>
       </c>
       <c r="E562" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F562" t="n">
         <v>79.18000000000001</v>
       </c>
     </row>
@@ -11135,6 +12823,9 @@
         <v>0.0001</v>
       </c>
       <c r="E563" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F563" t="n">
         <v>75.37</v>
       </c>
     </row>
@@ -11154,6 +12845,9 @@
         <v>0.0001</v>
       </c>
       <c r="E564" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F564" t="n">
         <v>88.20999999999999</v>
       </c>
     </row>
@@ -11173,6 +12867,9 @@
         <v>0.0001</v>
       </c>
       <c r="E565" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F565" t="n">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -11192,6 +12889,9 @@
         <v>0.0001</v>
       </c>
       <c r="E566" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F566" t="n">
         <v>81.56999999999999</v>
       </c>
     </row>
@@ -11211,6 +12911,9 @@
         <v>0.0001</v>
       </c>
       <c r="E567" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F567" t="n">
         <v>76.19</v>
       </c>
     </row>
@@ -11230,6 +12933,9 @@
         <v>0.0001</v>
       </c>
       <c r="E568" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F568" t="n">
         <v>16.83</v>
       </c>
     </row>
@@ -11249,6 +12955,9 @@
         <v>0.0001</v>
       </c>
       <c r="E569" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F569" t="n">
         <v>55.55</v>
       </c>
     </row>
@@ -11268,6 +12977,9 @@
         <v>0.0001</v>
       </c>
       <c r="E570" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F570" t="n">
         <v>82.45999999999999</v>
       </c>
     </row>
@@ -11287,6 +12999,9 @@
         <v>0.0001</v>
       </c>
       <c r="E571" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F571" t="n">
         <v>86.72</v>
       </c>
     </row>
@@ -11306,6 +13021,9 @@
         <v>0.0001</v>
       </c>
       <c r="E572" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F572" t="n">
         <v>91.72</v>
       </c>
     </row>
@@ -11325,6 +13043,9 @@
         <v>0.0001</v>
       </c>
       <c r="E573" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F573" t="n">
         <v>90</v>
       </c>
     </row>
@@ -11344,6 +13065,9 @@
         <v>0.0001</v>
       </c>
       <c r="E574" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F574" t="n">
         <v>86.48</v>
       </c>
     </row>
@@ -11363,6 +13087,9 @@
         <v>0.0001</v>
       </c>
       <c r="E575" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F575" t="n">
         <v>89.68000000000001</v>
       </c>
     </row>
@@ -11382,6 +13109,9 @@
         <v>0.0001</v>
       </c>
       <c r="E576" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F576" t="n">
         <v>52.23</v>
       </c>
     </row>
@@ -11401,6 +13131,9 @@
         <v>0.0001</v>
       </c>
       <c r="E577" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F577" t="n">
         <v>78.26000000000001</v>
       </c>
     </row>
@@ -11420,6 +13153,9 @@
         <v>0.0001</v>
       </c>
       <c r="E578" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F578" t="n">
         <v>90.86</v>
       </c>
     </row>
@@ -11439,6 +13175,9 @@
         <v>0.0001</v>
       </c>
       <c r="E579" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F579" t="n">
         <v>91.56999999999999</v>
       </c>
     </row>
@@ -11458,6 +13197,9 @@
         <v>0.0001</v>
       </c>
       <c r="E580" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F580" t="n">
         <v>95.02</v>
       </c>
     </row>
@@ -11477,6 +13219,9 @@
         <v>0.0001</v>
       </c>
       <c r="E581" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F581" t="n">
         <v>81.56</v>
       </c>
     </row>
@@ -11496,6 +13241,9 @@
         <v>0.0001</v>
       </c>
       <c r="E582" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F582" t="n">
         <v>94.59999999999999</v>
       </c>
     </row>
@@ -11515,6 +13263,9 @@
         <v>0.0001</v>
       </c>
       <c r="E583" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F583" t="n">
         <v>95.93000000000001</v>
       </c>
     </row>
@@ -11534,6 +13285,9 @@
         <v>0.0001</v>
       </c>
       <c r="E584" t="n">
+        <v>0</v>
+      </c>
+      <c r="F584" t="n">
         <v>97.41</v>
       </c>
     </row>
@@ -11553,6 +13307,9 @@
         <v>0.0002</v>
       </c>
       <c r="E585" t="n">
+        <v>0</v>
+      </c>
+      <c r="F585" t="n">
         <v>99.42</v>
       </c>
     </row>
@@ -11572,6 +13329,9 @@
         <v>0.0004</v>
       </c>
       <c r="E586" t="n">
+        <v>0</v>
+      </c>
+      <c r="F586" t="n">
         <v>99.69</v>
       </c>
     </row>
@@ -11591,6 +13351,9 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="E587" t="n">
+        <v>0</v>
+      </c>
+      <c r="F587" t="n">
         <v>99.79000000000001</v>
       </c>
     </row>
@@ -11610,6 +13373,9 @@
         <v>0.0008</v>
       </c>
       <c r="E588" t="n">
+        <v>0</v>
+      </c>
+      <c r="F588" t="n">
         <v>99.81999999999999</v>
       </c>
     </row>
@@ -11629,6 +13395,9 @@
         <v>0.0001</v>
       </c>
       <c r="E589" t="n">
+        <v>0</v>
+      </c>
+      <c r="F589" t="n">
         <v>95.45</v>
       </c>
     </row>
@@ -11648,6 +13417,9 @@
         <v>0.0002</v>
       </c>
       <c r="E590" t="n">
+        <v>0</v>
+      </c>
+      <c r="F590" t="n">
         <v>96.75</v>
       </c>
     </row>
@@ -11667,6 +13439,9 @@
         <v>0.0004</v>
       </c>
       <c r="E591" t="n">
+        <v>0</v>
+      </c>
+      <c r="F591" t="n">
         <v>97.56</v>
       </c>
     </row>
@@ -11686,6 +13461,9 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="n">
         <v>97.89</v>
       </c>
     </row>
@@ -11705,6 +13483,9 @@
         <v>0.0008</v>
       </c>
       <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="n">
         <v>98.37</v>
       </c>
     </row>
@@ -11724,6 +13505,9 @@
         <v>0.0001</v>
       </c>
       <c r="E594" t="n">
+        <v>0</v>
+      </c>
+      <c r="F594" t="n">
         <v>96.45</v>
       </c>
     </row>
@@ -11743,6 +13527,9 @@
         <v>0.0002</v>
       </c>
       <c r="E595" t="n">
+        <v>0</v>
+      </c>
+      <c r="F595" t="n">
         <v>98.23</v>
       </c>
     </row>
@@ -11762,6 +13549,9 @@
         <v>0.0004</v>
       </c>
       <c r="E596" t="n">
+        <v>0</v>
+      </c>
+      <c r="F596" t="n">
         <v>99.23</v>
       </c>
     </row>
@@ -11781,6 +13571,9 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="E597" t="n">
+        <v>0</v>
+      </c>
+      <c r="F597" t="n">
         <v>99.37</v>
       </c>
     </row>
@@ -11800,6 +13593,9 @@
         <v>0.0008</v>
       </c>
       <c r="E598" t="n">
+        <v>0</v>
+      </c>
+      <c r="F598" t="n">
         <v>99.45999999999999</v>
       </c>
     </row>
@@ -11819,6 +13615,9 @@
         <v>0.0005</v>
       </c>
       <c r="E599" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F599" t="n">
         <v>98.09999999999999</v>
       </c>
     </row>
@@ -11838,6 +13637,9 @@
         <v>0.0005</v>
       </c>
       <c r="E600" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F600" t="n">
         <v>97.8</v>
       </c>
     </row>
@@ -11857,6 +13659,9 @@
         <v>0.0005</v>
       </c>
       <c r="E601" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F601" t="n">
         <v>98.09999999999999</v>
       </c>
     </row>
@@ -11876,6 +13681,9 @@
         <v>0.0005</v>
       </c>
       <c r="E602" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F602" t="n">
         <v>97.8</v>
       </c>
     </row>
@@ -11895,6 +13703,9 @@
         <v>0.0005</v>
       </c>
       <c r="E603" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F603" t="n">
         <v>-4.7</v>
       </c>
     </row>
@@ -11914,6 +13725,9 @@
         <v>0.0005</v>
       </c>
       <c r="E604" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F604" t="n">
         <v>43.3</v>
       </c>
     </row>
@@ -11933,6 +13747,9 @@
         <v>0.0005</v>
       </c>
       <c r="E605" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F605" t="n">
         <v>96.40000000000001</v>
       </c>
     </row>
@@ -11952,6 +13769,9 @@
         <v>0.0005</v>
       </c>
       <c r="E606" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F606" t="n">
         <v>97.40000000000001</v>
       </c>
     </row>
@@ -11971,6 +13791,9 @@
         <v>0.0005</v>
       </c>
       <c r="E607" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F607" t="n">
         <v>99.40000000000001</v>
       </c>
     </row>
@@ -11990,6 +13813,9 @@
         <v>0.0005</v>
       </c>
       <c r="E608" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F608" t="n">
         <v>98.3</v>
       </c>
     </row>
@@ -12009,6 +13835,9 @@
         <v>0.0005</v>
       </c>
       <c r="E609" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F609" t="n">
         <v>-43</v>
       </c>
     </row>
@@ -12028,6 +13857,9 @@
         <v>0.0005</v>
       </c>
       <c r="E610" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F610" t="n">
         <v>-4.9</v>
       </c>
     </row>
@@ -12047,6 +13879,9 @@
         <v>0.0005</v>
       </c>
       <c r="E611" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F611" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -12066,6 +13901,9 @@
         <v>0.0005</v>
       </c>
       <c r="E612" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F612" t="n">
         <v>28.7</v>
       </c>
     </row>
